--- a/static/xls/mk — копия.xlsx
+++ b/static/xls/mk — копия.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\domains\indplaner\static\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\domains\indplaner\static\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB95ADC5-ECC4-4679-80D2-645A30550622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F776B2B-4A9D-4617-A676-0CAF044F1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21615" windowHeight="11385" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23925" windowHeight="14205" xr2:uid="{2879CCDD-600E-4F13-B205-5BF7F48708CB}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Маршрутная карта</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Изделие:</t>
   </si>
   <si>
-    <t>Наименование детали</t>
-  </si>
-  <si>
     <t>Материал (марка) заготовки</t>
   </si>
   <si>
-    <t>Обозначение (чертеж)</t>
-  </si>
-  <si>
     <t>Габариты заготовки</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Инженер-технолог:</t>
   </si>
   <si>
-    <t>------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
     <t>Иванов В.В.</t>
   </si>
   <si>
@@ -114,25 +105,19 @@
     <t>Втулка</t>
   </si>
   <si>
-    <t>Диск</t>
-  </si>
-  <si>
     <t>Фрезерная</t>
   </si>
   <si>
-    <t>ТРЦР.713645.004</t>
-  </si>
-  <si>
-    <t>ТРЦР.715642.002</t>
-  </si>
-  <si>
     <t>Круг 70-В1 ГОСТ 2590-2006        08Х18Н10Т ГОСТ 5949-2018</t>
   </si>
   <si>
     <t>Ø70×71</t>
   </si>
   <si>
-    <t>Ø70×44</t>
+    <t>Срок изготовления</t>
+  </si>
+  <si>
+    <t>Деталь (шифр, наименование)</t>
   </si>
 </sst>
 </file>
@@ -253,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,17 +252,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,45 +272,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -341,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -381,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -487,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +616,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,82 +636,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17"/>
       <c r="G4" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="17"/>
       <c r="G5" s="12">
         <v>1</v>
       </c>
@@ -746,512 +717,458 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="30.6" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.2" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18.2" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="18.2" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="18.2" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="18.2" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="18.2" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:1024" ht="4.7" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:1024">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:1024">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="4.7" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:1024">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:1024">
+      <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="E21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="22.9" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.2" customHeight="1"/>
-    <row r="38" spans="1:9" ht="18.2" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="4.7" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="E43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:1024" ht="22.9" customHeight="1">
+      <c r="AMB22"/>
+      <c r="AMC22"/>
+      <c r="AMD22"/>
+      <c r="AME22"/>
+      <c r="AMF22"/>
+      <c r="AMG22"/>
+      <c r="AMH22"/>
+      <c r="AMI22"/>
+      <c r="AMJ22"/>
+    </row>
+    <row r="23" spans="1:1024" ht="14.85" customHeight="1">
+      <c r="AMB23"/>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
+      <c r="AME23"/>
+      <c r="AMF23"/>
+      <c r="AMG23"/>
+      <c r="AMH23"/>
+      <c r="AMI23"/>
+      <c r="AMJ23"/>
+    </row>
+    <row r="24" spans="1:1024">
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+      <c r="AMH24"/>
+      <c r="AMI24"/>
+      <c r="AMJ24"/>
+    </row>
+    <row r="25" spans="1:1024" ht="30" customHeight="1">
+      <c r="AMB25"/>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
+      <c r="AME25"/>
+      <c r="AMF25"/>
+      <c r="AMG25"/>
+      <c r="AMH25"/>
+      <c r="AMI25"/>
+      <c r="AMJ25"/>
+    </row>
+    <row r="26" spans="1:1024">
+      <c r="AMB26"/>
+      <c r="AMC26"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
+      <c r="AMF26"/>
+      <c r="AMG26"/>
+      <c r="AMH26"/>
+      <c r="AMI26"/>
+      <c r="AMJ26"/>
+    </row>
+    <row r="27" spans="1:1024">
+      <c r="AMB27"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
+      <c r="AMF27"/>
+      <c r="AMG27"/>
+      <c r="AMH27"/>
+      <c r="AMI27"/>
+      <c r="AMJ27"/>
+    </row>
+    <row r="28" spans="1:1024">
+      <c r="AMB28"/>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
+      <c r="AMH28"/>
+      <c r="AMI28"/>
+      <c r="AMJ28"/>
+    </row>
+    <row r="29" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB29"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
+      <c r="AMH29"/>
+      <c r="AMI29"/>
+      <c r="AMJ29"/>
+    </row>
+    <row r="30" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB30"/>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
+      <c r="AMH30"/>
+      <c r="AMI30"/>
+      <c r="AMJ30"/>
+    </row>
+    <row r="31" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB31"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
+      <c r="AMH31"/>
+      <c r="AMI31"/>
+      <c r="AMJ31"/>
+    </row>
+    <row r="32" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB32"/>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
+      <c r="AMH32"/>
+      <c r="AMI32"/>
+      <c r="AMJ32"/>
+    </row>
+    <row r="33" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB33"/>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+      <c r="AMH33"/>
+      <c r="AMI33"/>
+      <c r="AMJ33"/>
+    </row>
+    <row r="34" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB34"/>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+      <c r="AMH34"/>
+      <c r="AMI34"/>
+      <c r="AMJ34"/>
+    </row>
+    <row r="35" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB35"/>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+    </row>
+    <row r="36" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+    </row>
+    <row r="37" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+    </row>
+    <row r="38" spans="1:1024" ht="18.2" customHeight="1">
+      <c r="AMB38"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+    </row>
+    <row r="39" spans="1:1024" ht="4.7" customHeight="1">
+      <c r="AMB39"/>
+      <c r="AMC39"/>
+      <c r="AMD39"/>
+      <c r="AME39"/>
+      <c r="AMF39"/>
+      <c r="AMG39"/>
+      <c r="AMH39"/>
+      <c r="AMI39"/>
+      <c r="AMJ39"/>
+    </row>
+    <row r="40" spans="1:1024">
+      <c r="AMB40"/>
+      <c r="AMC40"/>
+      <c r="AMD40"/>
+      <c r="AME40"/>
+      <c r="AMF40"/>
+      <c r="AMG40"/>
+      <c r="AMH40"/>
+      <c r="AMI40"/>
+      <c r="AMJ40"/>
+    </row>
+    <row r="41" spans="1:1024">
+      <c r="AMB41"/>
+      <c r="AMC41"/>
+      <c r="AMD41"/>
+      <c r="AME41"/>
+      <c r="AMF41"/>
+      <c r="AMG41"/>
+      <c r="AMH41"/>
+      <c r="AMI41"/>
+      <c r="AMJ41"/>
+    </row>
+    <row r="42" spans="1:1024">
+      <c r="AMB42"/>
+      <c r="AMC42"/>
+      <c r="AMD42"/>
+      <c r="AME42"/>
+      <c r="AMF42"/>
+      <c r="AMG42"/>
+      <c r="AMH42"/>
+      <c r="AMI42"/>
+      <c r="AMJ42"/>
+    </row>
+    <row r="43" spans="1:1024" ht="15" customHeight="1">
+      <c r="AMB43"/>
+      <c r="AMC43"/>
+      <c r="AMD43"/>
+      <c r="AME43"/>
+      <c r="AMF43"/>
+      <c r="AMG43"/>
+      <c r="AMH43"/>
+      <c r="AMI43"/>
+      <c r="AMJ43"/>
+    </row>
+    <row r="44" spans="1:1024">
+      <c r="AMB44"/>
+      <c r="AMC44"/>
+      <c r="AMD44"/>
+      <c r="AME44"/>
+      <c r="AMF44"/>
+      <c r="AMG44"/>
+      <c r="AMH44"/>
+      <c r="AMI44"/>
+      <c r="AMJ44"/>
+    </row>
+    <row r="45" spans="1:1024">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1263,7 +1180,7 @@
       <c r="I45"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="36">
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A7:B7"/>
@@ -1285,64 +1202,27 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="H21 H43" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">
+    <dataValidation type="list" allowBlank="1" sqref="H21" xr:uid="{95C0853E-AAD7-4672-98B2-549BA4DECCB3}">
       <formula1>"Белоусов А.М.,Иванов Р.Н.,Румянцев Г.М.,Ушакова А. А.,Сваричев В.В."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A7:A14 A29:A36" xr:uid="{5231E21C-1D5B-4964-85D0-EA405395408E}">
+    <dataValidation type="list" allowBlank="1" sqref="A7:A14" xr:uid="{5231E21C-1D5B-4964-85D0-EA405395408E}">
       <formula1>"Заготовительная,Плазменная резка,Токарная,Сверлильная,Фрезерная,Эл.Эрозия,Гальваника,Термическая,Слесарная,Контрольная,Покрасочная,Вальцовка,Гибка,Рубка,Сварка,Резьбонарезная,Координатно-расточная,Моечная"</formula1>
     </dataValidation>
   </dataValidations>
